--- a/raw-data/JRL_block1_30_32_3.xlsx
+++ b/raw-data/JRL_block1_30_32_3.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">599223248</definedName>
-    <definedName name="MethodPointer2">393</definedName>
+    <definedName name="MethodPointer1">1394061648</definedName>
+    <definedName name="MethodPointer2">572</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_3.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_4.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -535,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9E0F4"/>
+        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,31 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF9CC5E5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC9E0F4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFABCEEA"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9CC5E5"/>
+        <fgColor rgb="FF8DBCE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF8DBCE0"/>
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
+        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3385C2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,64 +696,58 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1091,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45764</v>
+        <v>45765</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1093,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.87868055555555558</v>
+        <v>0.50055555555555553</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1648,7 +1642,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1691,115 +1685,115 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="34" t="s">
+      <c r="B49" s="32" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
+        <v>10</v>
+      </c>
+      <c r="D49" s="9">
+        <v>11</v>
+      </c>
+      <c r="E49" s="9">
+        <v>14</v>
+      </c>
+      <c r="F49" s="9">
+        <v>12</v>
+      </c>
+      <c r="G49" s="9">
+        <v>11</v>
+      </c>
+      <c r="H49" s="9">
+        <v>17</v>
+      </c>
+      <c r="I49" s="9">
+        <v>11</v>
+      </c>
+      <c r="J49" s="9">
         <v>16</v>
-      </c>
-      <c r="D49" s="9">
-        <v>16</v>
-      </c>
-      <c r="E49" s="9">
-        <v>12</v>
-      </c>
-      <c r="F49" s="9">
-        <v>15</v>
-      </c>
-      <c r="G49" s="9">
-        <v>14</v>
-      </c>
-      <c r="H49" s="9">
-        <v>13</v>
-      </c>
-      <c r="I49" s="9">
-        <v>15</v>
-      </c>
-      <c r="J49" s="9">
-        <v>13</v>
       </c>
       <c r="K49" s="9">
         <v>15</v>
       </c>
       <c r="L49" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M49" s="9">
         <v>17</v>
       </c>
       <c r="N49" s="9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="35"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="10">
-        <v>0.95299999999999996</v>
+        <v>0.95099999999999996</v>
       </c>
       <c r="D50" s="11">
-        <v>0.86699999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="E50" s="10">
-        <v>0.93799999999999994</v>
+        <v>0.94799999999999995</v>
       </c>
       <c r="F50" s="12">
-        <v>0.83599999999999997</v>
-      </c>
-      <c r="G50" s="13">
-        <v>0.98099999999999998</v>
-      </c>
-      <c r="H50" s="14">
-        <v>1.0640000000000001</v>
+        <v>0.84</v>
+      </c>
+      <c r="G50" s="10">
+        <v>0.97599999999999998</v>
+      </c>
+      <c r="H50" s="13">
+        <v>1.0840000000000001</v>
       </c>
       <c r="I50" s="10">
-        <v>0.95699999999999996</v>
+        <v>0.96499999999999997</v>
       </c>
       <c r="J50" s="12">
-        <v>0.82099999999999995</v>
+        <v>0.82399999999999995</v>
       </c>
       <c r="K50" s="10">
-        <v>0.94499999999999995</v>
+        <v>0.95199999999999996</v>
       </c>
       <c r="L50" s="10">
-        <v>0.92900000000000005</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="M50" s="10">
-        <v>0.93300000000000005</v>
-      </c>
-      <c r="N50" s="14">
-        <v>1.0840000000000001</v>
+        <v>0.94099999999999995</v>
+      </c>
+      <c r="N50" s="13">
+        <v>1.101</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="34" t="s">
+      <c r="B51" s="32" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D51" s="9">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E51" s="9">
-        <v>16</v>
-      </c>
-      <c r="F51" s="15">
-        <v>43</v>
+        <v>18</v>
+      </c>
+      <c r="F51" s="9">
+        <v>50</v>
       </c>
       <c r="G51" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H51" s="9">
         <v>24</v>
       </c>
-      <c r="I51" s="16">
-        <v>282</v>
+      <c r="I51" s="14">
+        <v>357</v>
       </c>
       <c r="J51" s="9">
         <v>14</v>
@@ -1808,96 +1802,96 @@
         <v>19</v>
       </c>
       <c r="L51" s="9">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M51" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N51" s="9">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="35"/>
-      <c r="C52" s="17">
-        <v>1.4890000000000001</v>
-      </c>
-      <c r="D52" s="18">
-        <v>1.1060000000000001</v>
-      </c>
-      <c r="E52" s="14">
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="F52" s="13">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0.98499999999999999</v>
-      </c>
-      <c r="H52" s="14">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="I52" s="14">
-        <v>1.0569999999999999</v>
-      </c>
-      <c r="J52" s="18">
-        <v>1.139</v>
-      </c>
-      <c r="K52" s="18">
-        <v>1.133</v>
-      </c>
-      <c r="L52" s="18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="M52" s="14">
-        <v>1.05</v>
-      </c>
-      <c r="N52" s="19">
-        <v>1.355</v>
+      <c r="B52" s="33"/>
+      <c r="C52" s="11">
+        <v>1.46</v>
+      </c>
+      <c r="D52" s="13">
+        <v>1.113</v>
+      </c>
+      <c r="E52" s="13">
+        <v>1.073</v>
+      </c>
+      <c r="F52" s="10">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="G52" s="15">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1.097</v>
+      </c>
+      <c r="I52" s="13">
+        <v>1.077</v>
+      </c>
+      <c r="J52" s="16">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="K52" s="17">
+        <v>1.194</v>
+      </c>
+      <c r="L52" s="16">
+        <v>1.121</v>
+      </c>
+      <c r="M52" s="13">
+        <v>1.0740000000000001</v>
+      </c>
+      <c r="N52" s="18">
+        <v>1.353</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="32" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
         <v>12</v>
       </c>
-      <c r="D53" s="20">
-        <v>82</v>
-      </c>
-      <c r="E53" s="15">
-        <v>70</v>
-      </c>
-      <c r="F53" s="21">
-        <v>456</v>
-      </c>
-      <c r="G53" s="22">
-        <v>343</v>
+      <c r="D53" s="9">
+        <v>57</v>
+      </c>
+      <c r="E53" s="9">
+        <v>45</v>
+      </c>
+      <c r="F53" s="19">
+        <v>1787</v>
+      </c>
+      <c r="G53" s="19">
+        <v>1702</v>
       </c>
       <c r="H53" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I53" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J53" s="9">
-        <v>12</v>
-      </c>
-      <c r="K53" s="15">
-        <v>50</v>
-      </c>
-      <c r="L53" s="23">
-        <v>239</v>
+        <v>18</v>
+      </c>
+      <c r="K53" s="9">
+        <v>61</v>
+      </c>
+      <c r="L53" s="20">
+        <v>1271</v>
       </c>
       <c r="M53" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N53" s="9">
         <v>15</v>
@@ -1907,427 +1901,427 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="35"/>
-      <c r="C54" s="24">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="D54" s="13">
-        <v>1.0169999999999999</v>
-      </c>
-      <c r="E54" s="25">
-        <v>0.71499999999999997</v>
-      </c>
-      <c r="F54" s="26">
-        <v>1.1919999999999999</v>
-      </c>
-      <c r="G54" s="26">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="H54" s="18">
-        <v>1.1220000000000001</v>
-      </c>
-      <c r="I54" s="26">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="J54" s="13">
-        <v>0.99</v>
-      </c>
-      <c r="K54" s="18">
-        <v>1.1339999999999999</v>
-      </c>
-      <c r="L54" s="13">
-        <v>0.99199999999999999</v>
+      <c r="B54" s="33"/>
+      <c r="C54" s="21">
+        <v>1.282</v>
+      </c>
+      <c r="D54" s="15">
+        <v>1.036</v>
+      </c>
+      <c r="E54" s="22">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="F54" s="21">
+        <v>1.272</v>
+      </c>
+      <c r="G54" s="21">
+        <v>1.252</v>
+      </c>
+      <c r="H54" s="13">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="I54" s="17">
+        <v>1.1850000000000001</v>
+      </c>
+      <c r="J54" s="15">
+        <v>0.996</v>
+      </c>
+      <c r="K54" s="16">
+        <v>1.175</v>
+      </c>
+      <c r="L54" s="15">
+        <v>1.0469999999999999</v>
       </c>
       <c r="M54" s="10">
-        <v>0.95899999999999996</v>
-      </c>
-      <c r="N54" s="27">
-        <v>1.5549999999999999</v>
+        <v>0.95099999999999996</v>
+      </c>
+      <c r="N54" s="23">
+        <v>1.5580000000000001</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="34" t="s">
+      <c r="B55" s="32" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>16</v>
-      </c>
-      <c r="D55" s="15">
-        <v>65</v>
+        <v>15</v>
+      </c>
+      <c r="D55" s="24">
+        <v>153</v>
       </c>
       <c r="E55" s="9">
-        <v>10</v>
-      </c>
-      <c r="F55" s="28">
-        <v>171</v>
+        <v>12</v>
+      </c>
+      <c r="F55" s="14">
+        <v>286</v>
       </c>
       <c r="G55" s="9">
-        <v>25</v>
-      </c>
-      <c r="H55" s="29">
-        <v>121</v>
+        <v>20</v>
+      </c>
+      <c r="H55" s="9">
+        <v>90</v>
       </c>
       <c r="I55" s="9">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J55" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="K55" s="9">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="L55" s="9">
-        <v>16</v>
-      </c>
-      <c r="M55" s="28">
-        <v>176</v>
+        <v>12</v>
+      </c>
+      <c r="M55" s="25">
+        <v>410</v>
       </c>
       <c r="N55" s="9">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="35"/>
-      <c r="C56" s="30">
-        <v>1.371</v>
-      </c>
-      <c r="D56" s="14">
-        <v>1.101</v>
-      </c>
-      <c r="E56" s="14">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="F56" s="24">
-        <v>1.2669999999999999</v>
-      </c>
-      <c r="G56" s="14">
-        <v>1.0880000000000001</v>
-      </c>
-      <c r="H56" s="18">
-        <v>1.155</v>
-      </c>
-      <c r="I56" s="18">
-        <v>1.145</v>
-      </c>
-      <c r="J56" s="18">
-        <v>1.143</v>
+      <c r="B56" s="33"/>
+      <c r="C56" s="26">
+        <v>1.409</v>
+      </c>
+      <c r="D56" s="16">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="E56" s="16">
+        <v>1.139</v>
+      </c>
+      <c r="F56" s="21">
+        <v>1.2929999999999999</v>
+      </c>
+      <c r="G56" s="13">
+        <v>1.1020000000000001</v>
+      </c>
+      <c r="H56" s="17">
+        <v>1.1859999999999999</v>
+      </c>
+      <c r="I56" s="16">
+        <v>1.159</v>
+      </c>
+      <c r="J56" s="16">
+        <v>1.147</v>
       </c>
       <c r="K56" s="10">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="L56" s="14">
-        <v>1.0429999999999999</v>
-      </c>
-      <c r="M56" s="14">
-        <v>1.0960000000000001</v>
+        <v>0.98699999999999999</v>
+      </c>
+      <c r="L56" s="13">
+        <v>1.0720000000000001</v>
+      </c>
+      <c r="M56" s="13">
+        <v>1.1180000000000001</v>
       </c>
       <c r="N56" s="27">
-        <v>1.619</v>
+        <v>1.6180000000000001</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="32" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>15</v>
-      </c>
-      <c r="D57" s="20">
-        <v>95</v>
-      </c>
-      <c r="E57" s="15">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="D57" s="9">
+        <v>55</v>
+      </c>
+      <c r="E57" s="9">
+        <v>103</v>
       </c>
       <c r="F57" s="9">
         <v>13</v>
       </c>
       <c r="G57" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H57" s="9">
-        <v>15</v>
-      </c>
-      <c r="I57" s="16">
-        <v>273</v>
-      </c>
-      <c r="J57" s="22">
-        <v>335</v>
+        <v>11</v>
+      </c>
+      <c r="I57" s="28">
+        <v>579</v>
+      </c>
+      <c r="J57" s="19">
+        <v>1794</v>
       </c>
       <c r="K57" s="9">
-        <v>15</v>
-      </c>
-      <c r="L57" s="28">
-        <v>173</v>
-      </c>
-      <c r="M57" s="31">
-        <v>315</v>
+        <v>22</v>
+      </c>
+      <c r="L57" s="14">
+        <v>382</v>
+      </c>
+      <c r="M57" s="29">
+        <v>753</v>
       </c>
       <c r="N57" s="9">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="35"/>
-      <c r="C58" s="24">
-        <v>1.282</v>
-      </c>
-      <c r="D58" s="18">
-        <v>1.105</v>
-      </c>
-      <c r="E58" s="26">
-        <v>1.196</v>
-      </c>
-      <c r="F58" s="26">
-        <v>1.204</v>
-      </c>
-      <c r="G58" s="18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="H58" s="18">
-        <v>1.159</v>
-      </c>
-      <c r="I58" s="24">
-        <v>1.282</v>
-      </c>
-      <c r="J58" s="14">
-        <v>1.0529999999999999</v>
-      </c>
-      <c r="K58" s="26">
-        <v>1.1890000000000001</v>
+      <c r="B58" s="33"/>
+      <c r="C58" s="21">
+        <v>1.2549999999999999</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1.123</v>
+      </c>
+      <c r="E58" s="17">
+        <v>1.2090000000000001</v>
+      </c>
+      <c r="F58" s="17">
+        <v>1.2130000000000001</v>
+      </c>
+      <c r="G58" s="16">
+        <v>1.151</v>
+      </c>
+      <c r="H58" s="17">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="I58" s="18">
+        <v>1.3240000000000001</v>
+      </c>
+      <c r="J58" s="16">
+        <v>1.1479999999999999</v>
+      </c>
+      <c r="K58" s="17">
+        <v>1.2310000000000001</v>
       </c>
       <c r="L58" s="10">
-        <v>0.92400000000000004</v>
+        <v>0.94499999999999995</v>
       </c>
       <c r="M58" s="13">
-        <v>1.03</v>
+        <v>1.081</v>
       </c>
       <c r="N58" s="27">
-        <v>1.615</v>
+        <v>1.631</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="32" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
+        <v>15</v>
+      </c>
+      <c r="D59" s="30">
+        <v>1410</v>
+      </c>
+      <c r="E59" s="9">
+        <v>9</v>
+      </c>
+      <c r="F59" s="9">
         <v>14</v>
       </c>
-      <c r="D59" s="32">
-        <v>411</v>
-      </c>
-      <c r="E59" s="9">
-        <v>15</v>
-      </c>
-      <c r="F59" s="9">
-        <v>18</v>
-      </c>
       <c r="G59" s="9">
-        <v>15</v>
-      </c>
-      <c r="H59" s="20">
-        <v>84</v>
+        <v>12</v>
+      </c>
+      <c r="H59" s="9">
+        <v>55</v>
       </c>
       <c r="I59" s="9">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="J59" s="9">
         <v>20</v>
       </c>
       <c r="K59" s="9">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="L59" s="9">
         <v>15</v>
       </c>
       <c r="M59" s="9">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="N59" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="35"/>
-      <c r="C60" s="26">
-        <v>1.216</v>
-      </c>
-      <c r="D60" s="10">
-        <v>0.90900000000000003</v>
-      </c>
-      <c r="E60" s="18">
-        <v>1.1399999999999999</v>
-      </c>
-      <c r="F60" s="14">
+      <c r="B60" s="33"/>
+      <c r="C60" s="17">
+        <v>1.224</v>
+      </c>
+      <c r="D60" s="13">
         <v>1.071</v>
       </c>
-      <c r="G60" s="24">
-        <v>1.2849999999999999</v>
-      </c>
-      <c r="H60" s="14">
-        <v>1.046</v>
-      </c>
-      <c r="I60" s="26">
-        <v>1.1759999999999999</v>
-      </c>
-      <c r="J60" s="18">
-        <v>1.1559999999999999</v>
-      </c>
-      <c r="K60" s="10">
-        <v>0.95399999999999996</v>
+      <c r="E60" s="16">
+        <v>1.1779999999999999</v>
+      </c>
+      <c r="F60" s="16">
+        <v>1.1830000000000001</v>
+      </c>
+      <c r="G60" s="21">
+        <v>1.294</v>
+      </c>
+      <c r="H60" s="15">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I60" s="17">
+        <v>1.212</v>
+      </c>
+      <c r="J60" s="16">
+        <v>1.167</v>
+      </c>
+      <c r="K60" s="15">
+        <v>0.998</v>
       </c>
       <c r="L60" s="10">
-        <v>0.94399999999999995</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="M60" s="10">
-        <v>0.93799999999999994</v>
-      </c>
-      <c r="N60" s="33">
-        <v>1.522</v>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="N60" s="23">
+        <v>1.528</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+      <c r="B61" s="32" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>12</v>
+      </c>
+      <c r="D61" s="9">
+        <v>40</v>
+      </c>
+      <c r="E61" s="20">
+        <v>1253</v>
+      </c>
+      <c r="F61" s="9">
         <v>18</v>
       </c>
-      <c r="D61" s="15">
-        <v>62</v>
-      </c>
-      <c r="E61" s="22">
-        <v>333</v>
-      </c>
-      <c r="F61" s="9">
-        <v>16</v>
-      </c>
       <c r="G61" s="9">
-        <v>15</v>
-      </c>
-      <c r="H61" s="22">
-        <v>359</v>
+        <v>11</v>
+      </c>
+      <c r="H61" s="29">
+        <v>698</v>
       </c>
       <c r="I61" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J61" s="9">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="K61" s="9">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="L61" s="9">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="M61" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N61" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="35"/>
-      <c r="C62" s="19">
-        <v>1.3580000000000001</v>
-      </c>
-      <c r="D62" s="14">
-        <v>1.0469999999999999</v>
-      </c>
-      <c r="E62" s="18">
-        <v>1.145</v>
-      </c>
-      <c r="F62" s="18">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="G62" s="18">
-        <v>1.121</v>
-      </c>
-      <c r="H62" s="26">
+      <c r="B62" s="33"/>
+      <c r="C62" s="26">
+        <v>1.38</v>
+      </c>
+      <c r="D62" s="13">
+        <v>1.0680000000000001</v>
+      </c>
+      <c r="E62" s="17">
+        <v>1.1970000000000001</v>
+      </c>
+      <c r="F62" s="16">
+        <v>1.153</v>
+      </c>
+      <c r="G62" s="16">
+        <v>1.1459999999999999</v>
+      </c>
+      <c r="H62" s="17">
+        <v>1.202</v>
+      </c>
+      <c r="I62" s="15">
+        <v>1.0409999999999999</v>
+      </c>
+      <c r="J62" s="31">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="K62" s="16">
+        <v>1.1259999999999999</v>
+      </c>
+      <c r="L62" s="31">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="M62" s="15">
+        <v>1.0009999999999999</v>
+      </c>
+      <c r="N62" s="16">
         <v>1.173</v>
-      </c>
-      <c r="I62" s="14">
-        <v>1.0760000000000001</v>
-      </c>
-      <c r="J62" s="10">
-        <v>0.91600000000000004</v>
-      </c>
-      <c r="K62" s="18">
-        <v>1.129</v>
-      </c>
-      <c r="L62" s="11">
-        <v>0.90200000000000002</v>
-      </c>
-      <c r="M62" s="13">
-        <v>0.98399999999999999</v>
-      </c>
-      <c r="N62" s="26">
-        <v>1.1890000000000001</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="34" t="s">
+      <c r="B63" s="32" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D63" s="9">
         <v>15</v>
       </c>
       <c r="E63" s="9">
+        <v>10</v>
+      </c>
+      <c r="F63" s="9">
+        <v>15</v>
+      </c>
+      <c r="G63" s="9">
         <v>11</v>
       </c>
-      <c r="F63" s="9">
+      <c r="H63" s="9">
         <v>13</v>
-      </c>
-      <c r="G63" s="9">
-        <v>13</v>
-      </c>
-      <c r="H63" s="9">
-        <v>12</v>
       </c>
       <c r="I63" s="9">
         <v>14</v>
       </c>
       <c r="J63" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K63" s="9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="L63" s="9">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="M63" s="9">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N63" s="9">
         <v>15</v>
@@ -2337,42 +2331,42 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="35"/>
-      <c r="C64" s="13">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="D64" s="13">
-        <v>1.0109999999999999</v>
-      </c>
-      <c r="E64" s="13">
-        <v>0.998</v>
-      </c>
-      <c r="F64" s="14">
-        <v>1.0669999999999999</v>
+      <c r="B64" s="33"/>
+      <c r="C64" s="15">
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="D64" s="15">
+        <v>1.0309999999999999</v>
+      </c>
+      <c r="E64" s="15">
+        <v>1.018</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1.085</v>
       </c>
       <c r="G64" s="10">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="H64" s="14">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="I64" s="13">
-        <v>1.018</v>
-      </c>
-      <c r="J64" s="14">
-        <v>1.075</v>
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="H64" s="13">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I64" s="15">
+        <v>1.034</v>
+      </c>
+      <c r="J64" s="13">
+        <v>1.0680000000000001</v>
       </c>
       <c r="K64" s="10">
-        <v>0.96299999999999997</v>
-      </c>
-      <c r="L64" s="11">
-        <v>0.84799999999999998</v>
-      </c>
-      <c r="M64" s="11">
-        <v>0.874</v>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="L64" s="12">
+        <v>0.84699999999999998</v>
+      </c>
+      <c r="M64" s="31">
+        <v>0.86699999999999999</v>
       </c>
       <c r="N64" s="12">
-        <v>0.8</v>
+        <v>0.80100000000000005</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2391,6 +2385,7 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
--- a/raw-data/JRL_block1_30_32_3.xlsx
+++ b/raw-data/JRL_block1_30_32_3.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Plate 1 - Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MethodPointer1">1394061648</definedName>
-    <definedName name="MethodPointer2">572</definedName>
+    <definedName name="MethodPointer1">599223248</definedName>
+    <definedName name="MethodPointer2">393</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
@@ -34,7 +34,7 @@
     <t>Experiment File Path:</t>
   </si>
   <si>
-    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_4.xpt</t>
+    <t>C:\Users\rlmlab\Desktop\Jason L\Chlamy-x-microbes-2025-block1\JRL_block1_30_32_3.xpt</t>
   </si>
   <si>
     <t>Protocol File Path:</t>
@@ -535,7 +535,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF428EC7"/>
+        <fgColor rgb="FFC9E0F4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,31 +547,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFABCEEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9CC5E5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC9E0F4"/>
+        <fgColor rgb="FF6FA9D6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFABCEEA"/>
+        <fgColor rgb="FF428EC7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF8DBCE0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,19 +589,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF6FA9D6"/>
+        <fgColor rgb="FF5197CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7EB2DB"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF3385C2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF5197CC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -659,7 +659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -696,58 +696,64 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1085,7 +1091,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="1">
-        <v>45765</v>
+        <v>45764</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1099,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="2">
-        <v>0.50055555555555553</v>
+        <v>0.87868055555555558</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1642,7 +1648,7 @@
         <v>144</v>
       </c>
       <c r="B46">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -1685,115 +1691,115 @@
       </c>
     </row>
     <row r="49" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="34" t="s">
         <v>38</v>
       </c>
       <c r="C49" s="9">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D49" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E49" s="9">
+        <v>12</v>
+      </c>
+      <c r="F49" s="9">
+        <v>15</v>
+      </c>
+      <c r="G49" s="9">
         <v>14</v>
       </c>
-      <c r="F49" s="9">
-        <v>12</v>
-      </c>
-      <c r="G49" s="9">
-        <v>11</v>
-      </c>
       <c r="H49" s="9">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I49" s="9">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="J49" s="9">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="K49" s="9">
         <v>15</v>
       </c>
       <c r="L49" s="9">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M49" s="9">
         <v>17</v>
       </c>
       <c r="N49" s="9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="O49" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="50" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="10">
-        <v>0.95099999999999996</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="D50" s="11">
-        <v>1.4850000000000001</v>
+        <v>0.86699999999999999</v>
       </c>
       <c r="E50" s="10">
-        <v>0.94799999999999995</v>
+        <v>0.93799999999999994</v>
       </c>
       <c r="F50" s="12">
-        <v>0.84</v>
-      </c>
-      <c r="G50" s="10">
-        <v>0.97599999999999998</v>
-      </c>
-      <c r="H50" s="13">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="G50" s="13">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="H50" s="14">
+        <v>1.0640000000000001</v>
+      </c>
+      <c r="I50" s="10">
+        <v>0.95699999999999996</v>
+      </c>
+      <c r="J50" s="12">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="K50" s="10">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="L50" s="10">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="M50" s="10">
+        <v>0.93300000000000005</v>
+      </c>
+      <c r="N50" s="14">
         <v>1.0840000000000001</v>
-      </c>
-      <c r="I50" s="10">
-        <v>0.96499999999999997</v>
-      </c>
-      <c r="J50" s="12">
-        <v>0.82399999999999995</v>
-      </c>
-      <c r="K50" s="10">
-        <v>0.95199999999999996</v>
-      </c>
-      <c r="L50" s="10">
-        <v>0.93200000000000005</v>
-      </c>
-      <c r="M50" s="10">
-        <v>0.94099999999999995</v>
-      </c>
-      <c r="N50" s="13">
-        <v>1.101</v>
       </c>
       <c r="O50" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="51" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B51" s="32" t="s">
+      <c r="B51" s="34" t="s">
         <v>52</v>
       </c>
       <c r="C51" s="9">
+        <v>13</v>
+      </c>
+      <c r="D51" s="9">
+        <v>9</v>
+      </c>
+      <c r="E51" s="9">
         <v>16</v>
       </c>
-      <c r="D51" s="9">
+      <c r="F51" s="15">
+        <v>43</v>
+      </c>
+      <c r="G51" s="9">
         <v>12</v>
-      </c>
-      <c r="E51" s="9">
-        <v>18</v>
-      </c>
-      <c r="F51" s="9">
-        <v>50</v>
-      </c>
-      <c r="G51" s="9">
-        <v>14</v>
       </c>
       <c r="H51" s="9">
         <v>24</v>
       </c>
-      <c r="I51" s="14">
-        <v>357</v>
+      <c r="I51" s="16">
+        <v>282</v>
       </c>
       <c r="J51" s="9">
         <v>14</v>
@@ -1802,96 +1808,96 @@
         <v>19</v>
       </c>
       <c r="L51" s="9">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M51" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N51" s="9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O51" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="52" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B52" s="33"/>
-      <c r="C52" s="11">
-        <v>1.46</v>
-      </c>
-      <c r="D52" s="13">
-        <v>1.113</v>
-      </c>
-      <c r="E52" s="13">
-        <v>1.073</v>
-      </c>
-      <c r="F52" s="10">
-        <v>0.99099999999999999</v>
-      </c>
-      <c r="G52" s="15">
-        <v>1</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1.097</v>
-      </c>
-      <c r="I52" s="13">
-        <v>1.077</v>
-      </c>
-      <c r="J52" s="16">
-        <v>1.1739999999999999</v>
-      </c>
-      <c r="K52" s="17">
-        <v>1.194</v>
-      </c>
-      <c r="L52" s="16">
-        <v>1.121</v>
-      </c>
-      <c r="M52" s="13">
-        <v>1.0740000000000001</v>
-      </c>
-      <c r="N52" s="18">
-        <v>1.353</v>
+      <c r="B52" s="35"/>
+      <c r="C52" s="17">
+        <v>1.4890000000000001</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1.1060000000000001</v>
+      </c>
+      <c r="E52" s="14">
+        <v>1.0660000000000001</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="G52" s="13">
+        <v>0.98499999999999999</v>
+      </c>
+      <c r="H52" s="14">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="I52" s="14">
+        <v>1.0569999999999999</v>
+      </c>
+      <c r="J52" s="18">
+        <v>1.139</v>
+      </c>
+      <c r="K52" s="18">
+        <v>1.133</v>
+      </c>
+      <c r="L52" s="18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="M52" s="14">
+        <v>1.05</v>
+      </c>
+      <c r="N52" s="19">
+        <v>1.355</v>
       </c>
       <c r="O52" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="53" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B53" s="32" t="s">
+      <c r="B53" s="34" t="s">
         <v>65</v>
       </c>
       <c r="C53" s="9">
         <v>12</v>
       </c>
-      <c r="D53" s="9">
-        <v>57</v>
-      </c>
-      <c r="E53" s="9">
-        <v>45</v>
-      </c>
-      <c r="F53" s="19">
-        <v>1787</v>
-      </c>
-      <c r="G53" s="19">
-        <v>1702</v>
+      <c r="D53" s="20">
+        <v>82</v>
+      </c>
+      <c r="E53" s="15">
+        <v>70</v>
+      </c>
+      <c r="F53" s="21">
+        <v>456</v>
+      </c>
+      <c r="G53" s="22">
+        <v>343</v>
       </c>
       <c r="H53" s="9">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I53" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J53" s="9">
-        <v>18</v>
-      </c>
-      <c r="K53" s="9">
-        <v>61</v>
-      </c>
-      <c r="L53" s="20">
-        <v>1271</v>
+        <v>12</v>
+      </c>
+      <c r="K53" s="15">
+        <v>50</v>
+      </c>
+      <c r="L53" s="23">
+        <v>239</v>
       </c>
       <c r="M53" s="9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N53" s="9">
         <v>15</v>
@@ -1901,427 +1907,427 @@
       </c>
     </row>
     <row r="54" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B54" s="33"/>
-      <c r="C54" s="21">
-        <v>1.282</v>
-      </c>
-      <c r="D54" s="15">
-        <v>1.036</v>
-      </c>
-      <c r="E54" s="22">
-        <v>0.73699999999999999</v>
-      </c>
-      <c r="F54" s="21">
-        <v>1.272</v>
-      </c>
-      <c r="G54" s="21">
-        <v>1.252</v>
-      </c>
-      <c r="H54" s="13">
-        <v>1.1160000000000001</v>
-      </c>
-      <c r="I54" s="17">
-        <v>1.1850000000000001</v>
-      </c>
-      <c r="J54" s="15">
-        <v>0.996</v>
-      </c>
-      <c r="K54" s="16">
-        <v>1.175</v>
-      </c>
-      <c r="L54" s="15">
-        <v>1.0469999999999999</v>
+      <c r="B54" s="35"/>
+      <c r="C54" s="24">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="D54" s="13">
+        <v>1.0169999999999999</v>
+      </c>
+      <c r="E54" s="25">
+        <v>0.71499999999999997</v>
+      </c>
+      <c r="F54" s="26">
+        <v>1.1919999999999999</v>
+      </c>
+      <c r="G54" s="26">
+        <v>1.1990000000000001</v>
+      </c>
+      <c r="H54" s="18">
+        <v>1.1220000000000001</v>
+      </c>
+      <c r="I54" s="26">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="J54" s="13">
+        <v>0.99</v>
+      </c>
+      <c r="K54" s="18">
+        <v>1.1339999999999999</v>
+      </c>
+      <c r="L54" s="13">
+        <v>0.99199999999999999</v>
       </c>
       <c r="M54" s="10">
-        <v>0.95099999999999996</v>
-      </c>
-      <c r="N54" s="23">
-        <v>1.5580000000000001</v>
+        <v>0.95899999999999996</v>
+      </c>
+      <c r="N54" s="27">
+        <v>1.5549999999999999</v>
       </c>
       <c r="O54" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="55" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B55" s="32" t="s">
+      <c r="B55" s="34" t="s">
         <v>78</v>
       </c>
       <c r="C55" s="9">
-        <v>15</v>
-      </c>
-      <c r="D55" s="24">
-        <v>153</v>
+        <v>16</v>
+      </c>
+      <c r="D55" s="15">
+        <v>65</v>
       </c>
       <c r="E55" s="9">
-        <v>12</v>
-      </c>
-      <c r="F55" s="14">
-        <v>286</v>
+        <v>10</v>
+      </c>
+      <c r="F55" s="28">
+        <v>171</v>
       </c>
       <c r="G55" s="9">
+        <v>25</v>
+      </c>
+      <c r="H55" s="29">
+        <v>121</v>
+      </c>
+      <c r="I55" s="9">
+        <v>16</v>
+      </c>
+      <c r="J55" s="9">
+        <v>17</v>
+      </c>
+      <c r="K55" s="9">
         <v>20</v>
       </c>
-      <c r="H55" s="9">
-        <v>90</v>
-      </c>
-      <c r="I55" s="9">
-        <v>14</v>
-      </c>
-      <c r="J55" s="9">
-        <v>13</v>
-      </c>
-      <c r="K55" s="9">
-        <v>22</v>
-      </c>
       <c r="L55" s="9">
-        <v>12</v>
-      </c>
-      <c r="M55" s="25">
-        <v>410</v>
+        <v>16</v>
+      </c>
+      <c r="M55" s="28">
+        <v>176</v>
       </c>
       <c r="N55" s="9">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="O55" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="56" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B56" s="33"/>
-      <c r="C56" s="26">
-        <v>1.409</v>
-      </c>
-      <c r="D56" s="16">
-        <v>1.1299999999999999</v>
-      </c>
-      <c r="E56" s="16">
-        <v>1.139</v>
-      </c>
-      <c r="F56" s="21">
-        <v>1.2929999999999999</v>
-      </c>
-      <c r="G56" s="13">
-        <v>1.1020000000000001</v>
-      </c>
-      <c r="H56" s="17">
-        <v>1.1859999999999999</v>
-      </c>
-      <c r="I56" s="16">
-        <v>1.159</v>
-      </c>
-      <c r="J56" s="16">
-        <v>1.147</v>
+      <c r="B56" s="35"/>
+      <c r="C56" s="30">
+        <v>1.371</v>
+      </c>
+      <c r="D56" s="14">
+        <v>1.101</v>
+      </c>
+      <c r="E56" s="14">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="F56" s="24">
+        <v>1.2669999999999999</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1.0880000000000001</v>
+      </c>
+      <c r="H56" s="18">
+        <v>1.155</v>
+      </c>
+      <c r="I56" s="18">
+        <v>1.145</v>
+      </c>
+      <c r="J56" s="18">
+        <v>1.143</v>
       </c>
       <c r="K56" s="10">
-        <v>0.98699999999999999</v>
-      </c>
-      <c r="L56" s="13">
-        <v>1.0720000000000001</v>
-      </c>
-      <c r="M56" s="13">
-        <v>1.1180000000000001</v>
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="L56" s="14">
+        <v>1.0429999999999999</v>
+      </c>
+      <c r="M56" s="14">
+        <v>1.0960000000000001</v>
       </c>
       <c r="N56" s="27">
-        <v>1.6180000000000001</v>
+        <v>1.619</v>
       </c>
       <c r="O56" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="57" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B57" s="32" t="s">
+      <c r="B57" s="34" t="s">
         <v>91</v>
       </c>
       <c r="C57" s="9">
-        <v>13</v>
-      </c>
-      <c r="D57" s="9">
-        <v>55</v>
-      </c>
-      <c r="E57" s="9">
-        <v>103</v>
+        <v>15</v>
+      </c>
+      <c r="D57" s="20">
+        <v>95</v>
+      </c>
+      <c r="E57" s="15">
+        <v>64</v>
       </c>
       <c r="F57" s="9">
         <v>13</v>
       </c>
       <c r="G57" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H57" s="9">
-        <v>11</v>
-      </c>
-      <c r="I57" s="28">
-        <v>579</v>
-      </c>
-      <c r="J57" s="19">
-        <v>1794</v>
+        <v>15</v>
+      </c>
+      <c r="I57" s="16">
+        <v>273</v>
+      </c>
+      <c r="J57" s="22">
+        <v>335</v>
       </c>
       <c r="K57" s="9">
-        <v>22</v>
-      </c>
-      <c r="L57" s="14">
-        <v>382</v>
-      </c>
-      <c r="M57" s="29">
-        <v>753</v>
+        <v>15</v>
+      </c>
+      <c r="L57" s="28">
+        <v>173</v>
+      </c>
+      <c r="M57" s="31">
+        <v>315</v>
       </c>
       <c r="N57" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O57" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="58" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B58" s="33"/>
-      <c r="C58" s="21">
-        <v>1.2549999999999999</v>
-      </c>
-      <c r="D58" s="16">
-        <v>1.123</v>
-      </c>
-      <c r="E58" s="17">
-        <v>1.2090000000000001</v>
-      </c>
-      <c r="F58" s="17">
-        <v>1.2130000000000001</v>
-      </c>
-      <c r="G58" s="16">
-        <v>1.151</v>
-      </c>
-      <c r="H58" s="17">
-        <v>1.1990000000000001</v>
-      </c>
-      <c r="I58" s="18">
-        <v>1.3240000000000001</v>
-      </c>
-      <c r="J58" s="16">
-        <v>1.1479999999999999</v>
-      </c>
-      <c r="K58" s="17">
-        <v>1.2310000000000001</v>
+      <c r="B58" s="35"/>
+      <c r="C58" s="24">
+        <v>1.282</v>
+      </c>
+      <c r="D58" s="18">
+        <v>1.105</v>
+      </c>
+      <c r="E58" s="26">
+        <v>1.196</v>
+      </c>
+      <c r="F58" s="26">
+        <v>1.204</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="H58" s="18">
+        <v>1.159</v>
+      </c>
+      <c r="I58" s="24">
+        <v>1.282</v>
+      </c>
+      <c r="J58" s="14">
+        <v>1.0529999999999999</v>
+      </c>
+      <c r="K58" s="26">
+        <v>1.1890000000000001</v>
       </c>
       <c r="L58" s="10">
-        <v>0.94499999999999995</v>
+        <v>0.92400000000000004</v>
       </c>
       <c r="M58" s="13">
-        <v>1.081</v>
+        <v>1.03</v>
       </c>
       <c r="N58" s="27">
-        <v>1.631</v>
+        <v>1.615</v>
       </c>
       <c r="O58" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="59" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B59" s="32" t="s">
+      <c r="B59" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="9">
+        <v>14</v>
+      </c>
+      <c r="D59" s="32">
+        <v>411</v>
+      </c>
+      <c r="E59" s="9">
         <v>15</v>
       </c>
-      <c r="D59" s="30">
-        <v>1410</v>
-      </c>
-      <c r="E59" s="9">
-        <v>9</v>
-      </c>
       <c r="F59" s="9">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="G59" s="9">
-        <v>12</v>
-      </c>
-      <c r="H59" s="9">
-        <v>55</v>
+        <v>15</v>
+      </c>
+      <c r="H59" s="20">
+        <v>84</v>
       </c>
       <c r="I59" s="9">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="J59" s="9">
         <v>20</v>
       </c>
       <c r="K59" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L59" s="9">
         <v>15</v>
       </c>
       <c r="M59" s="9">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="N59" s="9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O59" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="60" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B60" s="33"/>
-      <c r="C60" s="17">
-        <v>1.224</v>
-      </c>
-      <c r="D60" s="13">
+      <c r="B60" s="35"/>
+      <c r="C60" s="26">
+        <v>1.216</v>
+      </c>
+      <c r="D60" s="10">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F60" s="14">
         <v>1.071</v>
       </c>
-      <c r="E60" s="16">
-        <v>1.1779999999999999</v>
-      </c>
-      <c r="F60" s="16">
-        <v>1.1830000000000001</v>
-      </c>
-      <c r="G60" s="21">
-        <v>1.294</v>
-      </c>
-      <c r="H60" s="15">
-        <v>1.0449999999999999</v>
-      </c>
-      <c r="I60" s="17">
-        <v>1.212</v>
-      </c>
-      <c r="J60" s="16">
-        <v>1.167</v>
-      </c>
-      <c r="K60" s="15">
-        <v>0.998</v>
+      <c r="G60" s="24">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="H60" s="14">
+        <v>1.046</v>
+      </c>
+      <c r="I60" s="26">
+        <v>1.1759999999999999</v>
+      </c>
+      <c r="J60" s="18">
+        <v>1.1559999999999999</v>
+      </c>
+      <c r="K60" s="10">
+        <v>0.95399999999999996</v>
       </c>
       <c r="L60" s="10">
-        <v>0.96199999999999997</v>
+        <v>0.94399999999999995</v>
       </c>
       <c r="M60" s="10">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="N60" s="23">
-        <v>1.528</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="N60" s="33">
+        <v>1.522</v>
       </c>
       <c r="O60" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="61" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B61" s="32" t="s">
+      <c r="B61" s="34" t="s">
         <v>117</v>
       </c>
       <c r="C61" s="9">
+        <v>18</v>
+      </c>
+      <c r="D61" s="15">
+        <v>62</v>
+      </c>
+      <c r="E61" s="22">
+        <v>333</v>
+      </c>
+      <c r="F61" s="9">
+        <v>16</v>
+      </c>
+      <c r="G61" s="9">
+        <v>15</v>
+      </c>
+      <c r="H61" s="22">
+        <v>359</v>
+      </c>
+      <c r="I61" s="9">
+        <v>14</v>
+      </c>
+      <c r="J61" s="9">
+        <v>27</v>
+      </c>
+      <c r="K61" s="9">
+        <v>15</v>
+      </c>
+      <c r="L61" s="9">
+        <v>14</v>
+      </c>
+      <c r="M61" s="9">
         <v>12</v>
       </c>
-      <c r="D61" s="9">
-        <v>40</v>
-      </c>
-      <c r="E61" s="20">
-        <v>1253</v>
-      </c>
-      <c r="F61" s="9">
-        <v>18</v>
-      </c>
-      <c r="G61" s="9">
-        <v>11</v>
-      </c>
-      <c r="H61" s="29">
-        <v>698</v>
-      </c>
-      <c r="I61" s="9">
-        <v>11</v>
-      </c>
-      <c r="J61" s="9">
-        <v>21</v>
-      </c>
-      <c r="K61" s="9">
-        <v>11</v>
-      </c>
-      <c r="L61" s="9">
-        <v>11</v>
-      </c>
-      <c r="M61" s="9">
-        <v>13</v>
-      </c>
       <c r="N61" s="9">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="O61" s="8" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="62" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B62" s="33"/>
-      <c r="C62" s="26">
-        <v>1.38</v>
-      </c>
-      <c r="D62" s="13">
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="E62" s="17">
-        <v>1.1970000000000001</v>
-      </c>
-      <c r="F62" s="16">
-        <v>1.153</v>
-      </c>
-      <c r="G62" s="16">
-        <v>1.1459999999999999</v>
-      </c>
-      <c r="H62" s="17">
-        <v>1.202</v>
-      </c>
-      <c r="I62" s="15">
-        <v>1.0409999999999999</v>
-      </c>
-      <c r="J62" s="31">
-        <v>0.92300000000000004</v>
-      </c>
-      <c r="K62" s="16">
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="L62" s="31">
-        <v>0.92400000000000004</v>
-      </c>
-      <c r="M62" s="15">
-        <v>1.0009999999999999</v>
-      </c>
-      <c r="N62" s="16">
+      <c r="B62" s="35"/>
+      <c r="C62" s="19">
+        <v>1.3580000000000001</v>
+      </c>
+      <c r="D62" s="14">
+        <v>1.0469999999999999</v>
+      </c>
+      <c r="E62" s="18">
+        <v>1.145</v>
+      </c>
+      <c r="F62" s="18">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="G62" s="18">
+        <v>1.121</v>
+      </c>
+      <c r="H62" s="26">
         <v>1.173</v>
+      </c>
+      <c r="I62" s="14">
+        <v>1.0760000000000001</v>
+      </c>
+      <c r="J62" s="10">
+        <v>0.91600000000000004</v>
+      </c>
+      <c r="K62" s="18">
+        <v>1.129</v>
+      </c>
+      <c r="L62" s="11">
+        <v>0.90200000000000002</v>
+      </c>
+      <c r="M62" s="13">
+        <v>0.98399999999999999</v>
+      </c>
+      <c r="N62" s="26">
+        <v>1.1890000000000001</v>
       </c>
       <c r="O62" s="8" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="63" spans="2:15" ht="18" x14ac:dyDescent="0.25">
-      <c r="B63" s="32" t="s">
+      <c r="B63" s="34" t="s">
         <v>130</v>
       </c>
       <c r="C63" s="9">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D63" s="9">
         <v>15</v>
       </c>
       <c r="E63" s="9">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="G63" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H63" s="9">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I63" s="9">
         <v>14</v>
       </c>
       <c r="J63" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K63" s="9">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="L63" s="9">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M63" s="9">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="N63" s="9">
         <v>15</v>
@@ -2331,42 +2337,42 @@
       </c>
     </row>
     <row r="64" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B64" s="33"/>
-      <c r="C64" s="15">
-        <v>1.0029999999999999</v>
-      </c>
-      <c r="D64" s="15">
-        <v>1.0309999999999999</v>
-      </c>
-      <c r="E64" s="15">
+      <c r="B64" s="35"/>
+      <c r="C64" s="13">
+        <v>0.99099999999999999</v>
+      </c>
+      <c r="D64" s="13">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="E64" s="13">
+        <v>0.998</v>
+      </c>
+      <c r="F64" s="14">
+        <v>1.0669999999999999</v>
+      </c>
+      <c r="G64" s="10">
+        <v>0.92300000000000004</v>
+      </c>
+      <c r="H64" s="14">
+        <v>1.0449999999999999</v>
+      </c>
+      <c r="I64" s="13">
         <v>1.018</v>
       </c>
-      <c r="F64" s="13">
-        <v>1.085</v>
-      </c>
-      <c r="G64" s="10">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="H64" s="13">
-        <v>1.0640000000000001</v>
-      </c>
-      <c r="I64" s="15">
-        <v>1.034</v>
-      </c>
-      <c r="J64" s="13">
-        <v>1.0680000000000001</v>
+      <c r="J64" s="14">
+        <v>1.075</v>
       </c>
       <c r="K64" s="10">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="L64" s="12">
-        <v>0.84699999999999998</v>
-      </c>
-      <c r="M64" s="31">
-        <v>0.86699999999999999</v>
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0.874</v>
       </c>
       <c r="N64" s="12">
-        <v>0.80100000000000005</v>
+        <v>0.8</v>
       </c>
       <c r="O64" s="8" t="s">
         <v>146</v>
@@ -2385,7 +2391,6 @@
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>